--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69056-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69056-2020.xlsx", "A 69056-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69056-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69056-2020.png", "A 69056-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69056-2020.docx", "A 69056-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69056-2020.docx", "A 69056-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69056-2020.docx", "A 69056-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69056-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69056-2020.docx", "A 69056-2020")</f>
         <v/>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -772,27 +772,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24725-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24725-2021.xlsx", "A 24725-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24725-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24725-2021.png", "A 24725-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24725-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24725-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24725-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24725-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
     </row>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,31 +875,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22024-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22024-2020.xlsx", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22024-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22024-2020.png", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 22024-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 22024-2020.png", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22024-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22024-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22024-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22024-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -977,31 +977,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 48349-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 48349-2022.xlsx", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 48349-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 48349-2022.png", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 48349-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 48349-2022.png", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 48349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 48349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 48349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 48349-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1078,31 +1078,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17626-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17626-2023.xlsx", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17626-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17626-2023.png", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 17626-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 17626-2023.png", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17626-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1182,27 +1182,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21236-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21236-2021.xlsx", "A 21236-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21236-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21236-2021.png", "A 21236-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21236-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21236-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21236-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21236-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,31 +1276,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 10224-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 10224-2019.xlsx", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 10224-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 10224-2019.png", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 10224-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 10224-2019.png", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 10224-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 10224-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 10224-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 10224-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1378,27 +1378,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22907-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22907-2023.xlsx", "A 22907-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22907-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22907-2023.png", "A 22907-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22907-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
     </row>
@@ -1412,7 +1412,7 @@
         <v>43653</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1475,27 +1475,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33878-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33878-2019.xlsx", "A 33878-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33878-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33878-2019.png", "A 33878-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33878-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33878-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33878-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33878-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
         <v>45074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1572,31 +1572,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23039-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23039-2023.xlsx", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23039-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23039-2023.png", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 23039-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 23039-2023.png", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23039-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23039-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23039-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23039-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
         <v>45139</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1673,27 +1673,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69624-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69624-2018.xlsx", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69624-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69624-2018.png", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="U13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 69624-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 69624-2018.png", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69624-2018.docx", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69624-2018.docx", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69624-2018.docx", "A 69624-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69624-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69624-2018.docx", "A 69624-2018")</f>
         <v/>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1862,27 +1862,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 56299-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 56299-2021.xlsx", "A 56299-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 56299-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 56299-2021.png", "A 56299-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 56299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 56299-2021.docx", "A 56299-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 56299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 56299-2021.docx", "A 56299-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 56299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 56299-2021.docx", "A 56299-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 56299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 56299-2021.docx", "A 56299-2021")</f>
         <v/>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1956,31 +1956,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13994-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13994-2023.xlsx", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13994-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13994-2023.png", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 13994-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 13994-2023.png", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13994-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13994-2023.docx", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13994-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13994-2023.docx", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13994-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13994-2023.docx", "A 13994-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13994-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13994-2023.docx", "A 13994-2023")</f>
         <v/>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2048,31 +2048,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22033-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22033-2020.xlsx", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22033-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22033-2020.png", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 22033-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 22033-2020.png", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22033-2020.docx", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22033-2020.docx", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22033-2020.docx", "A 22033-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22033-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22033-2020.docx", "A 22033-2020")</f>
         <v/>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2144,27 +2144,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 8552-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 8552-2022.xlsx", "A 8552-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 8552-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 8552-2022.png", "A 8552-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 8552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 8552-2022.docx", "A 8552-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 8552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 8552-2022.docx", "A 8552-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 8552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 8552-2022.docx", "A 8552-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 8552-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 8552-2022.docx", "A 8552-2022")</f>
         <v/>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,27 +2231,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42860-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42860-2022.xlsx", "A 42860-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42860-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42860-2022.png", "A 42860-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42860-2022.docx", "A 42860-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42860-2022.docx", "A 42860-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42860-2022.docx", "A 42860-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42860-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42860-2022.docx", "A 42860-2022")</f>
         <v/>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2318,27 +2318,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42853-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42853-2022.xlsx", "A 42853-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42853-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42853-2022.png", "A 42853-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42853-2022.docx", "A 42853-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42853-2022.docx", "A 42853-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42853-2022.docx", "A 42853-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42853-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42853-2022.docx", "A 42853-2022")</f>
         <v/>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2405,27 +2405,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42708-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42708-2022.xlsx", "A 42708-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42708-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42708-2022.png", "A 42708-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42708-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42708-2022.docx", "A 42708-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42708-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42708-2022.docx", "A 42708-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42708-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42708-2022.docx", "A 42708-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42708-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42708-2022.docx", "A 42708-2022")</f>
         <v/>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2497,27 +2497,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 3012-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 3012-2023.xlsx", "A 3012-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 3012-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 3012-2023.png", "A 3012-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 3012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 3012-2023.docx", "A 3012-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 3012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 3012-2023.docx", "A 3012-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 3012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 3012-2023.docx", "A 3012-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 3012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 3012-2023.docx", "A 3012-2023")</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2584,27 +2584,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14587-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14587-2023.xlsx", "A 14587-2023")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14587-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14587-2023.png", "A 14587-2023")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14587-2023.docx", "A 14587-2023")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14587-2023.docx", "A 14587-2023")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14587-2023.docx", "A 14587-2023")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14587-2023.docx", "A 14587-2023")</f>
         <v/>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,27 +2676,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24222-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24222-2023.xlsx", "A 24222-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24222-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24222-2023.png", "A 24222-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24222-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24222-2023.docx", "A 24222-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24222-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24222-2023.docx", "A 24222-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24222-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24222-2023.docx", "A 24222-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24222-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24222-2023.docx", "A 24222-2023")</f>
         <v/>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,27 +2767,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43169-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43169-2020.xlsx", "A 43169-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43169-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43169-2020.png", "A 43169-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43169-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,27 +2858,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43593-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43593-2020.xlsx", "A 43593-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43593-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43593-2020.png", "A 43593-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43593-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2949,27 +2949,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18717-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18717-2021.xlsx", "A 18717-2021")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18717-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18717-2021.png", "A 18717-2021")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18717-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18717-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18717-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18717-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,27 +3035,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21825-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21825-2021.xlsx", "A 21825-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21825-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21825-2021.png", "A 21825-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21825-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,27 +3126,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37800-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37800-2021.xlsx", "A 37800-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37800-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37800-2021.png", "A 37800-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37800-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,27 +3217,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37801-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37801-2021.xlsx", "A 37801-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37801-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37801-2021.png", "A 37801-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37801-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37801-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37801-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37801-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,27 +3308,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38200-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38200-2021.xlsx", "A 38200-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38200-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38200-2021.png", "A 38200-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38200-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3394,31 +3394,31 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7845-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7845-2022.xlsx", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7845-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7845-2022.png", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="U31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 7845-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 7845-2022.png", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7845-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7845-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7845-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7845-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3484,27 +3484,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 12116-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 12116-2023.xlsx", "A 12116-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 12116-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 12116-2023.png", "A 12116-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 12116-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 12116-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 12116-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 12116-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3570,27 +3570,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16217-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16217-2023.xlsx", "A 16217-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16217-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16217-2023.png", "A 16217-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16217-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3661,27 +3661,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23734-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23734-2023.xlsx", "A 23734-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23734-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23734-2023.png", "A 23734-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23734-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3752,27 +3752,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28043-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28043-2023.xlsx", "A 28043-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28043-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28043-2023.png", "A 28043-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28043-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28043-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28043-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28043-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3838,31 +3838,31 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 35620-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 35620-2023.xlsx", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 35620-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 35620-2023.png", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="U36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 35620-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 35620-2023.png", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 35620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 35620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 35620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 35620-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3927,31 +3927,31 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 4575-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 4575-2019.xlsx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 4575-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 4575-2019.png", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 4575-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 4575-2019.png", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 4575-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 4575-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 4575-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 4575-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4021,27 +4021,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 11098-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 11098-2019.xlsx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 11098-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 11098-2019.png", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 11098-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 11098-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 11098-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 11098-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4106,27 +4106,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16181-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16181-2019.xlsx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16181-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16181-2019.png", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16181-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
     </row>
@@ -4140,7 +4140,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4196,27 +4196,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18948-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18948-2019.xlsx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18948-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18948-2019.png", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18948-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4286,27 +4286,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28276-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28276-2019.xlsx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28276-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28276-2019.png", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28276-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
     </row>
@@ -4320,7 +4320,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4376,27 +4376,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33879-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33879-2019.xlsx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33879-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33879-2019.png", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33879-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4466,27 +4466,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39755-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39755-2019.xlsx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39755-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39755-2019.png", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39755-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39755-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39755-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39755-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
     </row>
@@ -4500,7 +4500,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4556,27 +4556,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 2708-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 2708-2020.xlsx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 2708-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 2708-2020.png", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 2708-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 2708-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 2708-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 2708-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4641,27 +4641,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 6514-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 6514-2020.xlsx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 6514-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 6514-2020.png", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 6514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 6514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 6514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 6514-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4726,27 +4726,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57412-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57412-2020.xlsx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57412-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57412-2020.png", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57412-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4811,27 +4811,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 59550-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 59550-2020.xlsx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 59550-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 59550-2020.png", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 59550-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 59550-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 59550-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 59550-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4901,27 +4901,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 20479-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 20479-2021.xlsx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 20479-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 20479-2021.png", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 20479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 20479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 20479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 20479-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4991,27 +4991,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38175-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38175-2021.xlsx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38175-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38175-2021.png", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38175-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38175-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38175-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38175-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5081,27 +5081,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 40411-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 40411-2021.xlsx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 40411-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 40411-2021.png", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 40411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 40411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 40411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 40411-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5166,27 +5166,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57168-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57168-2021.xlsx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57168-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57168-2021.png", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57168-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5251,27 +5251,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69777-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69777-2021.xlsx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69777-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69777-2021.png", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69777-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69777-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69777-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69777-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5336,27 +5336,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7655-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7655-2022.xlsx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7655-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7655-2022.png", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7655-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7655-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7655-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7655-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
     </row>
@@ -5370,7 +5370,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5421,27 +5421,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17632-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17632-2022.xlsx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17632-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17632-2022.png", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17632-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5511,27 +5511,27 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39099-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39099-2022.xlsx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39099-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39099-2022.png", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39099-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
     </row>
@@ -5545,7 +5545,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5596,27 +5596,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42765-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42765-2022.xlsx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42765-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42765-2022.png", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42765-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5681,27 +5681,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 47207-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 47207-2022.xlsx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 47207-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 47207-2022.png", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 47207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 47207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 47207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 47207-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
     </row>
@@ -5715,7 +5715,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5771,27 +5771,27 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13971-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13971-2023.xlsx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13971-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13971-2023.png", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13971-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5861,27 +5861,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14001-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14001-2023.xlsx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14001-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14001-2023.png", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14001-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5946,27 +5946,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16219-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16219-2023.xlsx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16219-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16219-2023.png", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6031,27 +6031,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22840-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22840-2023.xlsx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22840-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22840-2023.png", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22840-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6121,27 +6121,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24920-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24920-2023.xlsx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24920-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24920-2023.png", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
     </row>
@@ -6155,7 +6155,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6211,27 +6211,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 27170-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 27170-2023.xlsx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 27170-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 27170-2023.png", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 27170-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 27170-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 27170-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 27170-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6301,27 +6301,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30073-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30073-2023.xlsx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30073-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30073-2023.png", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30073-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6391,27 +6391,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30074-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30074-2023.xlsx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30074-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30074-2023.png", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30074-2023.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30074-2023.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30074-2023.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30074-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30074-2023.docx", "A 30074-2023")</f>
         <v/>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7072,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8235,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8540,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8964,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9021,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9202,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9264,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9450,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9512,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9569,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9874,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10407,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10469,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10531,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11022,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11084,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12331,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12574,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12636,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12884,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13251,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13313,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13499,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13804,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14047,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14109,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14295,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44314</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>43510</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>45070</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1405,64 +1405,162 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
+          <t>A 34759-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp
+Motaggsvamp
+Skogshare
+Dropptaggsvamp
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>A 33878-2019</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43653</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="C11" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Kyrkan</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>0.7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>8</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Sotnätfjäril
 Spillkråka
@@ -1474,92 +1572,92 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33878-2019.xlsx", "A 33878-2019")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33878-2019.png", "A 33878-2019")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33878-2019.docx", "A 33878-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 23039-2023</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45074</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>19.4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>7</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>2</v>
       </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
         <v>8</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -1571,129 +1669,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23039-2023.xlsx", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23039-2023.png", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 23039-2023.png", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23039-2023.docx", "A 23039-2023")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23039-2023.docx", "A 23039-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 34759-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45186</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>8</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Grantaggsvamp
-Motaggsvamp
-Skogshare
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1707,7 +1708,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1802,7 +1803,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1896,7 +1897,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1994,7 +1995,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2086,7 +2087,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2178,7 +2179,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2266,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2352,7 +2353,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2439,7 +2440,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2531,7 +2532,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2618,7 +2619,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2710,7 +2711,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2801,7 +2802,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2893,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2983,7 +2984,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3069,7 +3070,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3160,7 +3161,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3251,7 +3252,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3343,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3432,7 +3433,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3518,7 +3519,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3605,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3695,7 +3696,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3786,7 +3787,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3876,7 +3877,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3965,7 +3966,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4055,7 +4056,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4140,7 +4141,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4230,7 +4231,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4320,7 +4321,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4410,7 +4411,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4501,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4590,7 +4591,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4675,7 +4676,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4760,7 +4761,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4846,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4936,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5026,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5116,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5200,7 +5201,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5285,7 +5286,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5370,7 +5371,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5455,7 +5456,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5545,7 +5546,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5630,7 +5631,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5715,7 +5716,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5806,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5896,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5981,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6066,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6155,7 +6156,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6245,7 +6246,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6336,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6425,7 +6426,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6482,7 +6483,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6539,7 +6540,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6596,7 +6597,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6653,7 +6654,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6710,7 +6711,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6772,7 +6773,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6829,7 +6830,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6891,7 +6892,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6953,7 +6954,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7015,7 +7016,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7072,7 +7073,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7134,7 +7135,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7196,7 +7197,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7258,7 +7259,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7320,7 +7321,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7382,7 +7383,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7444,7 +7445,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7506,7 +7507,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7568,7 +7569,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7625,7 +7626,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7687,7 +7688,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7744,7 +7745,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7806,7 +7807,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7863,7 +7864,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7925,7 +7926,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7987,7 +7988,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8049,7 +8050,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8111,7 +8112,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8173,7 +8174,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8235,7 +8236,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8297,7 +8298,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8354,7 +8355,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8416,7 +8417,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8478,7 +8479,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8540,7 +8541,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8603,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8660,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8721,7 +8722,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8783,7 +8784,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8840,7 +8841,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8902,7 +8903,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8964,7 +8965,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9021,7 +9022,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9083,7 +9084,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9140,7 +9141,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9202,7 +9203,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9264,7 +9265,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9326,7 +9327,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9388,7 +9389,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9450,7 +9451,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9512,7 +9513,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9569,7 +9570,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9626,7 +9627,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9688,7 +9689,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9750,7 +9751,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9812,7 +9813,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9874,7 +9875,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9931,7 +9932,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9993,7 +9994,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10050,7 +10051,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10112,7 +10113,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10169,7 +10170,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10226,7 +10227,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10283,7 +10284,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10345,7 +10346,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10407,7 +10408,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10469,7 +10470,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10531,7 +10532,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10593,7 +10594,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10656,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10717,7 +10718,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10780,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10842,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10899,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10961,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11022,7 +11023,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11084,7 +11085,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11146,7 +11147,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11203,7 +11204,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11260,7 +11261,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11317,7 +11318,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11374,7 +11375,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11436,7 +11437,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11498,7 +11499,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11560,7 +11561,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11617,7 +11618,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11674,7 +11675,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11731,7 +11732,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11793,7 +11794,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11855,7 +11856,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11912,7 +11913,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11974,7 +11975,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12036,7 +12037,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12098,7 +12099,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12160,7 +12161,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12217,7 +12218,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12274,7 +12275,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12331,7 +12332,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12388,7 +12389,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12450,7 +12451,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12512,7 +12513,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12574,7 +12575,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12636,7 +12637,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12698,7 +12699,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12760,7 +12761,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12822,7 +12823,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12884,7 +12885,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12946,7 +12947,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13003,7 +13004,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13065,7 +13066,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13127,7 +13128,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13189,7 +13190,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13251,7 +13252,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13313,7 +13314,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13375,7 +13376,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13437,7 +13438,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13499,7 +13500,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13561,7 +13562,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13618,7 +13619,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13680,7 +13681,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13742,7 +13743,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13804,7 +13805,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13866,7 +13867,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13928,7 +13929,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13985,7 +13986,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14047,7 +14048,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14109,7 +14110,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14171,7 +14172,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14233,7 +14234,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14295,7 +14296,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14352,7 +14353,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14409,7 +14410,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14466,7 +14467,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1109,64 +1109,166 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
+          <t>A 34759-2023</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp
+Grantaggsvamp
+Motaggsvamp
+Skogshare
+Ullticka
+Dropptaggsvamp
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Vedticka
+Lopplummer
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>A 21236-2021</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>44314</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>11.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>6</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>3</v>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
         <v>11</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Skogshare
@@ -1181,87 +1283,87 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21236-2021.xlsx", "A 21236-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21236-2021.png", "A 21236-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21236-2021.docx", "A 21236-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 10224-2019</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43510</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J9" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>7</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q9" t="n">
         <v>10</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Gråtrut
 Knärot
@@ -1275,96 +1377,96 @@
 Gulnål</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 10224-2019.xlsx", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 10224-2019.png", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 10224-2019.png", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 10224-2019.docx", "A 10224-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 22907-2023</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>45070</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>9</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Slåtterfibbla
 Spillkråka
@@ -1377,126 +1479,28 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22907-2023.xlsx", "A 22907-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22907-2023.png", "A 22907-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22907-2023.docx", "A 22907-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22907-2023.docx", "A 22907-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 34759-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>9</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Grantaggsvamp
-Motaggsvamp
-Skogshare
-Dropptaggsvamp
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1510,7 +1514,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1607,7 +1611,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1708,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1803,7 +1807,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1897,7 +1901,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1995,7 +1999,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2087,7 +2091,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2179,7 +2183,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2266,7 +2270,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2353,7 +2357,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2440,7 +2444,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2532,7 +2536,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2619,7 +2623,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2711,7 +2715,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2802,7 +2806,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2893,7 +2897,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2984,7 +2988,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3070,7 +3074,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3161,7 +3165,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3252,7 +3256,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3343,7 +3347,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3433,7 +3437,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3519,7 +3523,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3605,7 +3609,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3696,7 +3700,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3787,7 +3791,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3877,7 +3881,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3966,7 +3970,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4056,7 +4060,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4145,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4231,7 +4235,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4325,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4411,7 +4415,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4501,7 +4505,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4591,7 +4595,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4676,7 +4680,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4761,7 +4765,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4850,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4936,7 +4940,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5026,7 +5030,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5116,7 +5120,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5201,7 +5205,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5286,7 +5290,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5371,7 +5375,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5456,7 +5460,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5550,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5631,7 +5635,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5716,7 +5720,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5806,7 +5810,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5896,7 +5900,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5981,7 +5985,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6066,7 +6070,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6156,7 +6160,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6246,7 +6250,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6336,7 +6340,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6426,7 +6430,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6483,7 +6487,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6540,7 +6544,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6597,7 +6601,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6654,7 +6658,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6711,7 +6715,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6773,7 +6777,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6830,7 +6834,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6892,7 +6896,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6954,7 +6958,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7016,7 +7020,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7073,7 +7077,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7135,7 +7139,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7197,7 +7201,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7259,7 +7263,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7321,7 +7325,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7383,7 +7387,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7445,7 +7449,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7507,7 +7511,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7569,7 +7573,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7626,7 +7630,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7688,7 +7692,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7745,7 +7749,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7807,7 +7811,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7864,7 +7868,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7926,7 +7930,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7988,7 +7992,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8050,7 +8054,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8112,7 +8116,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8174,7 +8178,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8236,7 +8240,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8298,7 +8302,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8355,7 +8359,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8417,7 +8421,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8479,7 +8483,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8541,7 +8545,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8603,7 +8607,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8660,7 +8664,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8722,7 +8726,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8784,7 +8788,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8841,7 +8845,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8903,7 +8907,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8965,7 +8969,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9022,7 +9026,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9084,7 +9088,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9141,7 +9145,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9203,7 +9207,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9265,7 +9269,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9327,7 +9331,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9389,7 +9393,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9451,7 +9455,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9513,7 +9517,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9570,7 +9574,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9627,7 +9631,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9689,7 +9693,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9751,7 +9755,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9813,7 +9817,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9875,7 +9879,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9932,7 +9936,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9994,7 +9998,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10051,7 +10055,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10113,7 +10117,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10170,7 +10174,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10227,7 +10231,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10284,7 +10288,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10346,7 +10350,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10408,7 +10412,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10470,7 +10474,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10532,7 +10536,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10594,7 +10598,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10656,7 +10660,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10718,7 +10722,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10780,7 +10784,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10842,7 +10846,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10899,7 +10903,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10961,7 +10965,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11023,7 +11027,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11085,7 +11089,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11147,7 +11151,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11204,7 +11208,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11261,7 +11265,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11318,7 +11322,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11375,7 +11379,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11437,7 +11441,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11499,7 +11503,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11561,7 +11565,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11618,7 +11622,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11675,7 +11679,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11732,7 +11736,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11794,7 +11798,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11856,7 +11860,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11913,7 +11917,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11975,7 +11979,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12037,7 +12041,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12099,7 +12103,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12161,7 +12165,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12218,7 +12222,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12275,7 +12279,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12332,7 +12336,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12389,7 +12393,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12451,7 +12455,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12513,7 +12517,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12575,7 +12579,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12637,7 +12641,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12699,7 +12703,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12761,7 +12765,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12823,7 +12827,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12885,7 +12889,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12947,7 +12951,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13004,7 +13008,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13066,7 +13070,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13128,7 +13132,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13190,7 +13194,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13252,7 +13256,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13314,7 +13318,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13376,7 +13380,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13438,7 +13442,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13500,7 +13504,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13562,7 +13566,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13619,7 +13623,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13681,7 +13685,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13743,7 +13747,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13805,7 +13809,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13867,7 +13871,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13929,7 +13933,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13986,7 +13990,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14048,7 +14052,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14110,7 +14114,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14172,7 +14176,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14234,7 +14238,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14296,7 +14300,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14353,7 +14357,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14410,7 +14414,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14467,7 +14471,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1015,7 +1015,7 @@
         <v>45036</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3523,7 +3523,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3791,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4235,7 +4235,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4765,7 +4765,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6160,7 +6160,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6250,7 +6250,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6834,7 +6834,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7449,7 +7449,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8302,7 +8302,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8359,7 +8359,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8421,7 +8421,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8483,7 +8483,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8788,7 +8788,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8907,7 +8907,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9088,7 +9088,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9331,7 +9331,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9393,7 +9393,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9455,7 +9455,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9998,7 +9998,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10350,7 +10350,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10412,7 +10412,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10474,7 +10474,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10660,7 +10660,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10784,7 +10784,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11860,7 +11860,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12103,7 +12103,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12165,7 +12165,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12222,7 +12222,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12279,7 +12279,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12765,7 +12765,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13132,7 +13132,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13256,7 +13256,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13442,7 +13442,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13990,7 +13990,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14357,7 +14357,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14414,7 +14414,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14471,7 +14471,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>44340</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>43959</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44858</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,59 +1008,166 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
+          <t>A 34759-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Grantaggsvamp
+Motaggsvamp
+Skogshare
+Ullticka
+Dropptaggsvamp
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Vedticka
+Lopplummer
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="U6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>A 17626-2023</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>45036</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>5.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
         <v>13</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Granticka
@@ -1077,134 +1184,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17626-2023.xlsx", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17626-2023.png", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="U6">
+      <c r="U7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 17626-2023.png", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17626-2023.docx", "A 17626-2023")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17626-2023.docx", "A 17626-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 34759-2023</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Blå taggsvamp
-Grantaggsvamp
-Motaggsvamp
-Skogshare
-Ullticka
-Dropptaggsvamp
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Vedticka
-Lopplummer
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1218,7 +1223,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1318,7 +1323,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1416,7 +1421,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1514,7 +1519,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1611,7 +1616,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1712,7 +1717,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1807,7 +1812,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1901,7 +1906,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1999,7 +2004,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2091,7 +2096,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2183,7 +2188,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2270,7 +2275,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2357,7 +2362,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2444,7 +2449,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2536,7 +2541,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2623,7 +2628,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2715,7 +2720,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2806,7 +2811,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2897,7 +2902,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2988,7 +2993,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3074,7 +3079,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3165,7 +3170,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3256,7 +3261,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3347,7 +3352,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3437,7 +3442,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3523,7 +3528,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3609,7 +3614,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3700,7 +3705,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3791,7 +3796,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3881,7 +3886,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3975,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4060,7 +4065,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4145,7 +4150,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4235,7 +4240,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4325,7 +4330,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4415,7 +4420,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4505,7 +4510,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4595,7 +4600,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4680,7 +4685,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4765,7 +4770,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4850,7 +4855,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4940,7 +4945,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5030,7 +5035,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5120,7 +5125,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5205,7 +5210,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5290,7 +5295,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5375,7 +5380,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5465,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5550,7 +5555,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5635,7 +5640,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5720,7 +5725,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5810,7 +5815,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5900,7 +5905,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5985,7 +5990,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6070,7 +6075,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6160,7 +6165,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6250,7 +6255,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6340,7 +6345,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6430,7 +6435,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6487,7 +6492,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6544,7 +6549,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6601,7 +6606,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6658,7 +6663,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6715,7 +6720,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6777,7 +6782,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6834,7 +6839,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6896,7 +6901,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6958,7 +6963,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7020,7 +7025,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7077,7 +7082,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7139,7 +7144,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7201,7 +7206,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7263,7 +7268,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7325,7 +7330,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7387,7 +7392,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7449,7 +7454,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7511,7 +7516,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7573,7 +7578,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7630,7 +7635,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7692,7 +7697,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7749,7 +7754,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7811,7 +7816,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7868,7 +7873,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7930,7 +7935,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7992,7 +7997,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8054,7 +8059,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8116,7 +8121,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8178,7 +8183,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8240,7 +8245,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8302,7 +8307,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8359,7 +8364,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8421,7 +8426,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8483,7 +8488,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8545,7 +8550,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8607,7 +8612,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8664,7 +8669,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8726,7 +8731,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8788,7 +8793,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8845,7 +8850,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8907,7 +8912,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8969,7 +8974,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9026,7 +9031,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9088,7 +9093,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9145,7 +9150,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9207,7 +9212,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9269,7 +9274,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9331,7 +9336,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9393,7 +9398,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9455,7 +9460,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9517,7 +9522,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9574,7 +9579,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9631,7 +9636,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9693,7 +9698,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9755,7 +9760,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9817,7 +9822,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9879,7 +9884,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9936,7 +9941,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9998,7 +10003,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10055,7 +10060,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10117,7 +10122,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10174,7 +10179,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10231,7 +10236,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10288,7 +10293,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10350,7 +10355,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10412,7 +10417,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10474,7 +10479,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10536,7 +10541,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10598,7 +10603,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10660,7 +10665,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10727,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10784,7 +10789,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10846,7 +10851,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10908,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10965,7 +10970,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11027,7 +11032,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11089,7 +11094,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11151,7 +11156,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11208,7 +11213,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11265,7 +11270,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11322,7 +11327,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11379,7 +11384,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11441,7 +11446,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11503,7 +11508,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11565,7 +11570,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11622,7 +11627,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11679,7 +11684,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11736,7 +11741,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11798,7 +11803,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11860,7 +11865,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11917,7 +11922,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11979,7 +11984,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12041,7 +12046,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12103,7 +12108,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12165,7 +12170,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12222,7 +12227,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12279,7 +12284,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12336,7 +12341,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12393,7 +12398,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12455,7 +12460,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12517,7 +12522,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12579,7 +12584,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12641,7 +12646,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12703,7 +12708,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12765,7 +12770,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12827,7 +12832,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12889,7 +12894,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12951,7 +12956,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13008,7 +13013,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13070,7 +13075,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13132,7 +13137,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13194,7 +13199,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13256,7 +13261,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13318,7 +13323,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13380,7 +13385,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13442,7 +13447,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13504,7 +13509,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13566,7 +13571,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13623,7 +13628,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13685,7 +13690,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13747,7 +13752,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13809,7 +13814,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13871,7 +13876,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13933,7 +13938,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13990,7 +13995,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14052,7 +14057,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14114,7 +14119,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14176,7 +14181,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14238,7 +14243,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14300,7 +14305,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14357,7 +14362,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14414,7 +14419,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14471,7 +14476,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -695,64 +695,173 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A 34759-2023</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Grantaggsvamp
+Motaggsvamp
+Skogshare
+Spillkråka
+Talltita
+Ullticka
+Dropptaggsvamp
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Vedticka
+Lopplummer
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 34759-2023.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>A 24725-2021</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>44340</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="C4" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>6</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Blå taggsvamp
@@ -771,92 +880,92 @@
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24725-2021.xlsx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24725-2021.png", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24725-2021.docx", "A 24725-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
         <is>
           <t>A 22024-2020</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>43959</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="C5" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>19.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>9</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>14</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Hängticka
 Knärot
@@ -874,91 +983,91 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22024-2020.xlsx", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22024-2020.png", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="U4">
+      <c r="U5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 22024-2020.png", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22024-2020.docx", "A 22024-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 48349-2022</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>44858</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="C6" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>5.3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>6</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>6</v>
       </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>7</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
         <v>14</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Grantaggsvamp
@@ -976,139 +1085,32 @@
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 48349-2022.xlsx", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 48349-2022.png", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="U5">
+      <c r="U6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 48349-2022.png", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 48349-2022.docx", "A 48349-2022")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 48349-2022.docx", "A 48349-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 34759-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>14</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blå taggsvamp
-Grantaggsvamp
-Motaggsvamp
-Skogshare
-Ullticka
-Dropptaggsvamp
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Vedticka
-Lopplummer
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 34759-2023.xlsx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 34759-2023.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 34759-2023.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 34759-2023.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 34759-2023.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1124,7 @@
         <v>45036</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1223,7 +1225,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,7 +1325,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1421,7 +1423,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1519,7 +1521,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1616,7 +1618,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1717,7 +1719,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1812,7 +1814,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1906,7 +1908,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2004,7 +2006,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2096,7 +2098,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2188,7 +2190,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2275,7 +2277,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2362,7 +2364,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2449,7 +2451,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2541,7 +2543,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2628,7 +2630,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2720,7 +2722,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2811,7 +2813,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2902,7 +2904,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2993,7 +2995,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3079,7 +3081,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3170,7 +3172,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3261,7 +3263,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3352,7 +3354,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3442,7 +3444,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3528,7 +3530,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3614,7 +3616,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3705,7 +3707,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3796,7 +3798,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3886,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3975,7 +3977,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4065,7 +4067,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4150,7 +4152,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4240,7 +4242,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4330,7 +4332,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4420,7 +4422,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4510,7 +4512,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4600,7 +4602,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4685,7 +4687,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4770,7 +4772,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4855,7 +4857,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4945,7 +4947,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5035,7 +5037,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5125,7 +5127,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5210,7 +5212,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5295,7 +5297,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5380,7 +5382,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5465,7 +5467,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5555,7 +5557,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5640,7 +5642,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5725,7 +5727,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5815,7 +5817,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5905,7 +5907,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5990,7 +5992,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6075,7 +6077,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6165,7 +6167,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6255,7 +6257,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6345,7 +6347,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6435,7 +6437,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6492,7 +6494,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6549,7 +6551,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6606,7 +6608,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6663,7 +6665,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6720,7 +6722,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6782,7 +6784,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6839,7 +6841,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6901,7 +6903,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6963,7 +6965,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7025,7 +7027,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7082,7 +7084,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7144,7 +7146,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7206,7 +7208,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7268,7 +7270,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7330,7 +7332,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7392,7 +7394,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7454,7 +7456,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7516,7 +7518,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7578,7 +7580,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7635,7 +7637,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7697,7 +7699,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7754,7 +7756,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7816,7 +7818,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7873,7 +7875,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7935,7 +7937,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7997,7 +7999,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8059,7 +8061,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8121,7 +8123,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8183,7 +8185,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8245,7 +8247,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8307,7 +8309,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8364,7 +8366,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8426,7 +8428,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8488,7 +8490,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8550,7 +8552,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8612,7 +8614,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8669,7 +8671,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8731,7 +8733,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8793,7 +8795,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8850,7 +8852,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8912,7 +8914,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8974,7 +8976,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9031,7 +9033,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9093,7 +9095,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9150,7 +9152,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9212,7 +9214,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9274,7 +9276,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9336,7 +9338,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9398,7 +9400,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9460,7 +9462,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9522,7 +9524,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9579,7 +9581,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9636,7 +9638,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9698,7 +9700,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9760,7 +9762,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9822,7 +9824,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9884,7 +9886,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9941,7 +9943,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10003,7 +10005,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10060,7 +10062,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10122,7 +10124,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10179,7 +10181,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10236,7 +10238,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10293,7 +10295,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10355,7 +10357,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10417,7 +10419,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10479,7 +10481,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10541,7 +10543,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10605,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10667,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10727,7 +10729,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10789,7 +10791,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10851,7 +10853,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10908,7 +10910,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10970,7 +10972,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11032,7 +11034,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11094,7 +11096,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11156,7 +11158,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11213,7 +11215,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11270,7 +11272,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11327,7 +11329,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11384,7 +11386,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11446,7 +11448,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11508,7 +11510,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11570,7 +11572,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11627,7 +11629,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11684,7 +11686,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11741,7 +11743,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11803,7 +11805,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11865,7 +11867,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11922,7 +11924,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11984,7 +11986,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12046,7 +12048,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12108,7 +12110,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12170,7 +12172,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12227,7 +12229,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12284,7 +12286,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12341,7 +12343,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12398,7 +12400,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12460,7 +12462,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12522,7 +12524,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12584,7 +12586,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12646,7 +12648,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12708,7 +12710,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12770,7 +12772,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12832,7 +12834,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12894,7 +12896,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12956,7 +12958,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13013,7 +13015,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13075,7 +13077,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13137,7 +13139,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13199,7 +13201,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13261,7 +13263,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13323,7 +13325,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13385,7 +13387,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13447,7 +13449,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13509,7 +13511,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13571,7 +13573,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13628,7 +13630,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13690,7 +13692,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13752,7 +13754,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13814,7 +13816,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13876,7 +13878,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13938,7 +13940,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13995,7 +13997,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14057,7 +14059,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14119,7 +14121,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14181,7 +14183,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14243,7 +14245,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14305,7 +14307,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14362,7 +14364,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14419,7 +14421,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14476,7 +14478,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44340</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43959</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45036</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         <v>44081</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
         <v>44082</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44322</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44402</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44402</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>44405</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>44608</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44995</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         <v>45022</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3616,7 +3616,7 @@
         <v>45077</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45099</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>45147</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>43486</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>43516</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>43545</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         <v>43563</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         <v>43623</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43653</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43692</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>43850</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>43867</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44138</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         <v>44148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         <v>44315</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>44405</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>44419</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         <v>44482</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>44532</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>44607</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>44680</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44832</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44852</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         <v>45007</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>45022</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>45072</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>45085</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>45096</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         <v>45110</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         <v>43418</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>43446</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6551,7 +6551,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>43493</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43507</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         <v>43557</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43563</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>43566</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>43570</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>43578</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43591</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>43623</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         <v>43630</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43640</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
         <v>43691</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43692</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>43693</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43780</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         <v>43801</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43802</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7818,7 +7818,7 @@
         <v>43839</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
         <v>43864</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>43878</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>44069</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>44081</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8247,7 +8247,7 @@
         <v>44082</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>44099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>44117</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>44130</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>44131</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>44148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>44151</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8795,7 +8795,7 @@
         <v>44209</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>44306</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>44315</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>44322</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44340</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>44369</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>44378</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>44402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         <v>44448</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>44509</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9700,7 +9700,7 @@
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         <v>44524</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>44545</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9943,7 +9943,7 @@
         <v>44550</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>44582</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>44586</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44587</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44595</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>44614</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44643</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44672</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44691</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44694</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10605,7 +10605,7 @@
         <v>44739</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10667,7 +10667,7 @@
         <v>44782</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44790</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44796</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>44826</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11096,7 +11096,7 @@
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11158,7 +11158,7 @@
         <v>44832</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11215,7 +11215,7 @@
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11329,7 +11329,7 @@
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11386,7 +11386,7 @@
         <v>44859</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11448,7 +11448,7 @@
         <v>44946</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11510,7 +11510,7 @@
         <v>44977</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11572,7 +11572,7 @@
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11629,7 +11629,7 @@
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11743,7 +11743,7 @@
         <v>44991</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11805,7 +11805,7 @@
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11867,7 +11867,7 @@
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11924,7 +11924,7 @@
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>44993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>45005</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45012</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         <v>45013</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         <v>45021</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45026</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45041</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>45050</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12524,7 +12524,7 @@
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12586,7 +12586,7 @@
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>45054</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12772,7 +12772,7 @@
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12834,7 +12834,7 @@
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45056</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45060</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13077,7 +13077,7 @@
         <v>45068</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13139,7 +13139,7 @@
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13263,7 +13263,7 @@
         <v>45070</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13325,7 +13325,7 @@
         <v>45071</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>45077</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45079</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13816,7 +13816,7 @@
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13878,7 +13878,7 @@
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13940,7 +13940,7 @@
         <v>45090</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13997,7 +13997,7 @@
         <v>45096</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14183,7 +14183,7 @@
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>45110</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>45155</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>45156</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14421,7 +14421,7 @@
         <v>45159</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y199"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44187</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>45139</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44340</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         <v>43959</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>44858</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         <v>45036</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         <v>44314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>43510</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>45070</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         <v>43653</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         <v>45074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43447</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1814,7 +1814,7 @@
         <v>44477</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>45007</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43959</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         <v>44613</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         <v>44832</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         <v>44832</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>44832</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>44945</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         <v>45013</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         <v>45079</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2715,1269 +2715,1272 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
+          <t>A 48128-2023</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Blodticka
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 48128-2023.xlsx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 48128-2023.png", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 48128-2023.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 48128-2023.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 48128-2023.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 48128-2023.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>A 43169-2020</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44081</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="C25" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>6.4</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Hängticka
 Kandelabersvamp</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43169-2020.xlsx", "A 43169-2020")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43169-2020.png", "A 43169-2020")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43169-2020.docx", "A 43169-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 43593-2020</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44082</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="C26" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>1.7</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Dofttaggsvamp
 Hasselticka</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 43593-2020.xlsx", "A 43593-2020")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 43593-2020.png", "A 43593-2020")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 43593-2020.docx", "A 43593-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 18717-2021</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44306</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>18</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Lopplummer
 Revlummer</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18717-2021.xlsx", "A 18717-2021")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18717-2021.png", "A 18717-2021")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18717-2021.docx", "A 18717-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
         <is>
           <t>A 21825-2021</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28" s="1" t="n">
         <v>44322</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
+      <c r="C28" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>4.7</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 21825-2021.xlsx", "A 21825-2021")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 21825-2021.png", "A 21825-2021")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 21825-2021.docx", "A 21825-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 37800-2021</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>44402</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.3</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Grönvit nattviol</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37800-2021.xlsx", "A 37800-2021")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37800-2021.png", "A 37800-2021")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37800-2021.docx", "A 37800-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 37801-2021</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44402</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
+      <c r="C30" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>2.3</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Veckticka
 Nattviol</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 37801-2021.xlsx", "A 37801-2021")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 37801-2021.png", "A 37801-2021")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 37801-2021.docx", "A 37801-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 38200-2021</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44405</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>1.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>2</v>
       </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Vågticka
 Svinrot</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38200-2021.xlsx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38200-2021.png", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38200-2021.docx", "A 38200-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
         <is>
           <t>A 7845-2022</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32" s="1" t="n">
         <v>44608</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
+      <c r="C32" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R32" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vedticka</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7845-2022.xlsx", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7845-2022.png", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="U31">
+      <c r="U32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 7845-2022.png", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y32">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7845-2022.docx", "A 7845-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
         <is>
           <t>A 12116-2023</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33" s="1" t="n">
         <v>44995</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
+      <c r="C33" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>2</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>2</v>
       </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="2" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
         <is>
           <t>Tornseglare
 Spillkråka</t>
         </is>
       </c>
-      <c r="S32">
+      <c r="S33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 12116-2023.xlsx", "A 12116-2023")</f>
         <v/>
       </c>
-      <c r="T32">
+      <c r="T33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 12116-2023.png", "A 12116-2023")</f>
         <v/>
       </c>
-      <c r="V32">
+      <c r="V33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
-      <c r="W32">
+      <c r="W33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
-      <c r="X32">
+      <c r="X33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 12116-2023.docx", "A 12116-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
         <is>
           <t>A 16217-2023</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34" s="1" t="n">
         <v>45022</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="C34" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>2.6</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2</v>
       </c>
-      <c r="R33" s="2" t="inlineStr">
+      <c r="R34" s="2" t="inlineStr">
         <is>
           <t>Tretåig hackspett
 Gullgröppa</t>
         </is>
       </c>
-      <c r="S33">
+      <c r="S34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16217-2023.xlsx", "A 16217-2023")</f>
         <v/>
       </c>
-      <c r="T33">
+      <c r="T34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16217-2023.png", "A 16217-2023")</f>
         <v/>
       </c>
-      <c r="V33">
+      <c r="V34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
-      <c r="W33">
+      <c r="W34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
-      <c r="X33">
+      <c r="X34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
-      <c r="Y33">
+      <c r="Y34">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16217-2023.docx", "A 16217-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 23734-2023</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>45077</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="C35" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G35" t="n">
         <v>6.7</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>2</v>
       </c>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2</v>
       </c>
-      <c r="R34" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Hängticka
 Kandelabersvamp</t>
         </is>
       </c>
-      <c r="S34">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 23734-2023.xlsx", "A 23734-2023")</f>
         <v/>
       </c>
-      <c r="T34">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 23734-2023.png", "A 23734-2023")</f>
         <v/>
       </c>
-      <c r="V34">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
-      <c r="W34">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
-      <c r="X34">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 23734-2023.docx", "A 23734-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
         <is>
           <t>A 28043-2023</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36" s="1" t="n">
         <v>45099</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="C36" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G36" t="n">
         <v>23.9</v>
       </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>2</v>
       </c>
-      <c r="R35" s="2" t="inlineStr">
+      <c r="R36" s="2" t="inlineStr">
         <is>
           <t>Gropticka
 Revlummer</t>
         </is>
       </c>
-      <c r="S35">
+      <c r="S36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28043-2023.xlsx", "A 28043-2023")</f>
         <v/>
       </c>
-      <c r="T35">
+      <c r="T36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28043-2023.png", "A 28043-2023")</f>
         <v/>
       </c>
-      <c r="V35">
+      <c r="V36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
-      <c r="W35">
+      <c r="W36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
-      <c r="X35">
+      <c r="X36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28043-2023.docx", "A 28043-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 35620-2023</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>45147</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
+      <c r="C37" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>20.3</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
         <v>2</v>
       </c>
-      <c r="R36" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Lopplummer</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 35620-2023.xlsx", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 35620-2023.png", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="U36">
+      <c r="U37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 35620-2023.png", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 35620-2023.docx", "A 35620-2023")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 35620-2023.docx", "A 35620-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A 4575-2019</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>43486</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 4575-2019.xlsx", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 4575-2019.png", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="U37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 4575-2019.png", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 4575-2019.docx", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 4575-2019.docx", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 4575-2019.docx", "A 4575-2019")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 11098-2019</t>
+          <t>A 4575-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43516</v>
+        <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3989,25 +3992,20 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>5.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4019,55 +4017,59 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Kamjordstjärna</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 11098-2019.xlsx", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 4575-2019.xlsx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 11098-2019.png", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 4575-2019.png", "A 4575-2019")</f>
+        <v/>
+      </c>
+      <c r="U38">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/knärot/A 4575-2019.png", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 11098-2019.docx", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 11098-2019.docx", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 11098-2019.docx", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 11098-2019.docx", "A 11098-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 4575-2019.docx", "A 4575-2019")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 16181-2019</t>
+          <t>A 11098-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43545</v>
+        <v>43516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4079,8 +4081,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4114,45 +4121,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Sotlav</t>
+          <t>Kamjordstjärna</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16181-2019.xlsx", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 11098-2019.xlsx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16181-2019.png", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 11098-2019.png", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16181-2019.docx", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16181-2019.docx", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16181-2019.docx", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16181-2019.docx", "A 16181-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 11098-2019.docx", "A 11098-2019")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18948-2019</t>
+          <t>A 16181-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43563</v>
+        <v>43545</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4164,19 +4171,14 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4185,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4194,55 +4196,55 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Sotlav</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18948-2019.xlsx", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16181-2019.xlsx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18948-2019.png", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16181-2019.png", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18948-2019.docx", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18948-2019.docx", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18948-2019.docx", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18948-2019.docx", "A 18948-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16181-2019.docx", "A 16181-2019")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28276-2019</t>
+          <t>A 18948-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43623</v>
+        <v>43563</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4256,11 +4258,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>8.4</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4269,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4287,52 +4289,52 @@
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Hapalopilus aurantiacus</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28276-2019.xlsx", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 18948-2019.xlsx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28276-2019.png", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 18948-2019.png", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28276-2019.docx", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28276-2019.docx", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28276-2019.docx", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28276-2019.docx", "A 28276-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 18948-2019.docx", "A 18948-2019")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 33879-2019</t>
+          <t>A 28276-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43653</v>
+        <v>43623</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4346,23 +4348,23 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4377,52 +4379,52 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Hapalopilus aurantiacus</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33879-2019.xlsx", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 28276-2019.xlsx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33879-2019.png", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 28276-2019.png", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33879-2019.docx", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33879-2019.docx", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33879-2019.docx", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33879-2019.docx", "A 33879-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 28276-2019.docx", "A 28276-2019")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39755-2019</t>
+          <t>A 33879-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43692</v>
+        <v>43653</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4436,11 +4438,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>11.8</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -4452,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4464,55 +4466,55 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39755-2019.xlsx", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 33879-2019.xlsx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39755-2019.png", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 33879-2019.png", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39755-2019.docx", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39755-2019.docx", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39755-2019.docx", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39755-2019.docx", "A 39755-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 33879-2019.docx", "A 33879-2019")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2708-2020</t>
+          <t>A 39755-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43850</v>
+        <v>43692</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4530,16 +4532,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>29.7</v>
+        <v>11.8</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4554,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -4564,45 +4566,45 @@
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 2708-2020.xlsx", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39755-2019.xlsx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 2708-2020.png", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39755-2019.png", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 2708-2020.docx", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 2708-2020.docx", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 2708-2020.docx", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 2708-2020.docx", "A 2708-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39755-2019.docx", "A 39755-2019")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6514-2020</t>
+          <t>A 2708-2020</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43867</v>
+        <v>43850</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4614,20 +4616,25 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>29.7</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4642,52 +4649,52 @@
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 6514-2020.xlsx", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 2708-2020.xlsx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 6514-2020.png", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 2708-2020.png", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 6514-2020.docx", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 6514-2020.docx", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 6514-2020.docx", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 6514-2020.docx", "A 6514-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 2708-2020.docx", "A 2708-2020")</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57412-2020</t>
+          <t>A 6514-2020</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44138</v>
+        <v>43867</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4700,7 +4707,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>1</v>
@@ -4709,10 +4716,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4727,52 +4734,52 @@
         <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57412-2020.xlsx", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 6514-2020.xlsx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57412-2020.png", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 6514-2020.png", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57412-2020.docx", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57412-2020.docx", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57412-2020.docx", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57412-2020.docx", "A 57412-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 6514-2020.docx", "A 6514-2020")</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59550-2020</t>
+          <t>A 57412-2020</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44148</v>
+        <v>44138</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4785,10 +4792,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4819,45 +4826,45 @@
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
-          <t>Ljusskivig lerskivling</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 59550-2020.xlsx", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57412-2020.xlsx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 59550-2020.png", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57412-2020.png", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 59550-2020.docx", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 59550-2020.docx", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 59550-2020.docx", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 59550-2020.docx", "A 59550-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57412-2020.docx", "A 57412-2020")</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 20479-2021</t>
+          <t>A 59550-2020</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44315</v>
+        <v>44148</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4869,22 +4876,17 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -4899,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4909,45 +4911,45 @@
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Ljusskivig lerskivling</t>
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 20479-2021.xlsx", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 59550-2020.xlsx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 20479-2021.png", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 59550-2020.png", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 20479-2021.docx", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 20479-2021.docx", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 20479-2021.docx", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 20479-2021.docx", "A 20479-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 59550-2020.docx", "A 59550-2020")</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38175-2021</t>
+          <t>A 20479-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44405</v>
+        <v>44315</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4965,16 +4967,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4989,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -4999,45 +5001,45 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38175-2021.xlsx", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 20479-2021.xlsx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38175-2021.png", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 20479-2021.png", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38175-2021.docx", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38175-2021.docx", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38175-2021.docx", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38175-2021.docx", "A 38175-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 20479-2021.docx", "A 20479-2021")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40411-2021</t>
+          <t>A 38175-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44419</v>
+        <v>44405</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5055,16 +5057,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -5079,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -5089,45 +5091,45 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 40411-2021.xlsx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 38175-2021.xlsx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 40411-2021.png", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 38175-2021.png", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 40411-2021.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 40411-2021.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 40411-2021.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 40411-2021.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 38175-2021.docx", "A 38175-2021")</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 57168-2021</t>
+          <t>A 40411-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44482</v>
+        <v>44419</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5139,17 +5141,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -5164,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5174,45 +5181,45 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Svartöra</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57168-2021.xlsx", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 40411-2021.xlsx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57168-2021.png", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 40411-2021.png", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57168-2021.docx", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57168-2021.docx", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57168-2021.docx", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57168-2021.docx", "A 57168-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 40411-2021.docx", "A 40411-2021")</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 69777-2021</t>
+          <t>A 57168-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44532</v>
+        <v>44482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5225,19 +5232,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5252,52 +5259,52 @@
         <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Svartöra</t>
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69777-2021.xlsx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 57168-2021.xlsx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69777-2021.png", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 57168-2021.png", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69777-2021.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69777-2021.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69777-2021.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69777-2021.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 57168-2021.docx", "A 57168-2021")</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7655-2022</t>
+          <t>A 69777-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44607</v>
+        <v>44532</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5310,7 +5317,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -5348,41 +5355,41 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7655-2022.xlsx", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 69777-2021.xlsx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7655-2022.png", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 69777-2021.png", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7655-2022.docx", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7655-2022.docx", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7655-2022.docx", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7655-2022.docx", "A 7655-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 69777-2021.docx", "A 69777-2021")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 17632-2022</t>
+          <t>A 7655-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44680</v>
+        <v>44607</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5395,19 +5402,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.2</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -5419,55 +5426,55 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17632-2022.xlsx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 7655-2022.xlsx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17632-2022.png", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 7655-2022.png", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17632-2022.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17632-2022.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17632-2022.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17632-2022.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 7655-2022.docx", "A 7655-2022")</f>
         <v/>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39099-2022</t>
+          <t>A 17632-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44817</v>
+        <v>44680</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5479,13 +5486,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5519,45 +5521,45 @@
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>Stekelbock</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39099-2022.xlsx", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 17632-2022.xlsx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39099-2022.png", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 17632-2022.png", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39099-2022.docx", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39099-2022.docx", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39099-2022.docx", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39099-2022.docx", "A 39099-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 17632-2022.docx", "A 17632-2022")</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 42765-2022</t>
+          <t>A 39099-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44832</v>
+        <v>44817</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5569,14 +5571,19 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>7.4</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -5604,45 +5611,45 @@
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Stekelbock</t>
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42765-2022.xlsx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 39099-2022.xlsx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42765-2022.png", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 39099-2022.png", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42765-2022.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42765-2022.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42765-2022.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42765-2022.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 39099-2022.docx", "A 39099-2022")</f>
         <v/>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47207-2022</t>
+          <t>A 42765-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44852</v>
+        <v>44832</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5655,16 +5662,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5679,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5689,45 +5696,45 @@
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 47207-2022.xlsx", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 42765-2022.xlsx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 47207-2022.png", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 42765-2022.png", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 47207-2022.docx", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 47207-2022.docx", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 47207-2022.docx", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 47207-2022.docx", "A 47207-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 42765-2022.docx", "A 42765-2022")</f>
         <v/>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 13971-2023</t>
+          <t>A 47207-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45007</v>
+        <v>44852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5739,22 +5746,17 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5769,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -5779,45 +5781,45 @@
       </c>
       <c r="R58" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13971-2023.xlsx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 47207-2022.xlsx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13971-2023.png", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 47207-2022.png", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13971-2023.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13971-2023.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13971-2023.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13971-2023.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 47207-2022.docx", "A 47207-2022")</f>
         <v/>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 14001-2023</t>
+          <t>A 13971-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
         <v>45007</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5835,16 +5837,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5859,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -5869,45 +5871,45 @@
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14001-2023.xlsx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 13971-2023.xlsx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14001-2023.png", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 13971-2023.png", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14001-2023.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14001-2023.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14001-2023.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14001-2023.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 13971-2023.docx", "A 13971-2023")</f>
         <v/>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 16219-2023</t>
+          <t>A 14001-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45022</v>
+        <v>45007</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5919,11 +5921,16 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5954,45 +5961,45 @@
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16219-2023.xlsx", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 14001-2023.xlsx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16219-2023.png", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 14001-2023.png", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16219-2023.docx", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16219-2023.docx", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16219-2023.docx", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16219-2023.docx", "A 16219-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 14001-2023.docx", "A 14001-2023")</f>
         <v/>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 22840-2023</t>
+          <t>A 16219-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45072</v>
+        <v>45022</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6005,7 +6012,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -6014,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -6029,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -6039,45 +6046,45 @@
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22840-2023.xlsx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 16219-2023.xlsx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22840-2023.png", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 16219-2023.png", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22840-2023.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22840-2023.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22840-2023.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22840-2023.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 16219-2023.docx", "A 16219-2023")</f>
         <v/>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 24920-2023</t>
+          <t>A 22840-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45085</v>
+        <v>45072</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6089,13 +6096,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>16.2</v>
+        <v>4.3</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -6119,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -6129,45 +6131,45 @@
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24920-2023.xlsx", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 22840-2023.xlsx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24920-2023.png", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 22840-2023.png", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24920-2023.docx", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24920-2023.docx", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24920-2023.docx", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24920-2023.docx", "A 24920-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 22840-2023.docx", "A 22840-2023")</f>
         <v/>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27170-2023</t>
+          <t>A 24920-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45096</v>
+        <v>45085</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6181,20 +6183,20 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>11.3</v>
+        <v>16.2</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -6209,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -6219,45 +6221,45 @@
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 27170-2023.xlsx", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 24920-2023.xlsx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 27170-2023.png", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 24920-2023.png", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 27170-2023.docx", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 27170-2023.docx", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 27170-2023.docx", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 27170-2023.docx", "A 27170-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 24920-2023.docx", "A 24920-2023")</f>
         <v/>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 30073-2023</t>
+          <t>A 27170-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45110</v>
+        <v>45096</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6275,7 +6277,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>11.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6309,45 +6311,45 @@
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30073-2023.xlsx", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 27170-2023.xlsx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30073-2023.png", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 27170-2023.png", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30073-2023.docx", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30073-2023.docx", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30073-2023.docx", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30073-2023.docx", "A 30073-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 27170-2023.docx", "A 27170-2023")</f>
         <v/>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30074-2023</t>
+          <t>A 30073-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
         <v>45110</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6365,13 +6367,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -6399,45 +6401,45 @@
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30074-2023.xlsx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30073-2023.xlsx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30074-2023.png", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30073-2023.png", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30074-2023.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30074-2023.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30074-2023.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30074-2023.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30073-2023.docx", "A 30073-2023")</f>
         <v/>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 59303-2018</t>
+          <t>A 30074-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43418</v>
+        <v>45110</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6449,11 +6451,16 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -6480,21 +6487,49 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/artfynd/A 30074-2023.xlsx", "A 30074-2023")</f>
+        <v/>
+      </c>
+      <c r="T66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/kartor/A 30074-2023.png", "A 30074-2023")</f>
+        <v/>
+      </c>
+      <c r="V66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomål/A 30074-2023.docx", "A 30074-2023")</f>
+        <v/>
+      </c>
+      <c r="W66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/klagomålsmail/A 30074-2023.docx", "A 30074-2023")</f>
+        <v/>
+      </c>
+      <c r="X66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsyn/A 30074-2023.docx", "A 30074-2023")</f>
+        <v/>
+      </c>
+      <c r="Y66">
+        <f>HYPERLINK("https://klasma.github.io/Logging_SURAHAMMAR/tillsynsmail/A 30074-2023.docx", "A 30074-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 69582-2018</t>
+          <t>A 59303-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43446</v>
+        <v>43418</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6507,7 +6542,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6544,14 +6579,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 143-2019</t>
+          <t>A 69582-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43467</v>
+        <v>43446</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6564,7 +6599,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6601,14 +6636,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 7751-2019</t>
+          <t>A 143-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43493</v>
+        <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6621,7 +6656,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6658,14 +6693,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9397-2019</t>
+          <t>A 7751-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43507</v>
+        <v>43493</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6678,7 +6713,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6715,14 +6750,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9790-2019</t>
+          <t>A 9397-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43509</v>
+        <v>43507</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6734,13 +6769,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6777,14 +6807,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 17946-2019</t>
+          <t>A 9790-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43557</v>
+        <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6796,8 +6826,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>9.9</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6834,14 +6869,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 18960-2019</t>
+          <t>A 17946-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43563</v>
+        <v>43557</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6853,13 +6888,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>4.1</v>
+        <v>9.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6896,14 +6926,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 18953-2019</t>
+          <t>A 18960-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43563</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6921,7 +6951,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6958,14 +6988,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19659-2019</t>
+          <t>A 18953-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43566</v>
+        <v>43563</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6979,11 +7009,11 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -7020,14 +7050,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 20127-2019</t>
+          <t>A 19659-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43570</v>
+        <v>43566</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7039,8 +7069,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -7077,14 +7112,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 20904-2019</t>
+          <t>A 20127-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43578</v>
+        <v>43570</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7096,13 +7131,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7139,14 +7169,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22834-2019</t>
+          <t>A 20904-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43591</v>
+        <v>43578</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7164,7 +7194,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7201,14 +7231,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28274-2019</t>
+          <t>A 22834-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43623</v>
+        <v>43591</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7222,11 +7252,11 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7263,14 +7293,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29523-2019</t>
+          <t>A 28274-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43630</v>
+        <v>43623</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7284,11 +7314,11 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7325,14 +7355,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 31008-2019</t>
+          <t>A 29523-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43640</v>
+        <v>43630</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7350,7 +7380,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7387,14 +7417,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39552-2019</t>
+          <t>A 31008-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43691</v>
+        <v>43640</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7408,11 +7438,11 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7449,14 +7479,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 39754-2019</t>
+          <t>A 39552-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43692</v>
+        <v>43691</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7474,7 +7504,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7511,14 +7541,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 40191-2019</t>
+          <t>A 39754-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43693</v>
+        <v>43692</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7532,11 +7562,11 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>5.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -7573,14 +7603,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60343-2019</t>
+          <t>A 40191-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43780</v>
+        <v>43693</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7592,8 +7622,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -7630,14 +7665,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 64772-2019</t>
+          <t>A 60343-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43801</v>
+        <v>43780</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7649,13 +7684,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -7692,14 +7722,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 66269-2019</t>
+          <t>A 64772-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7711,8 +7741,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -7749,14 +7784,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 65619-2019</t>
+          <t>A 66269-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43804</v>
+        <v>43802</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7768,13 +7803,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7811,14 +7841,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 2039-2020</t>
+          <t>A 65619-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43839</v>
+        <v>43804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7830,8 +7860,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7868,14 +7903,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5804-2020</t>
+          <t>A 2039-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43864</v>
+        <v>43839</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7887,13 +7922,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7930,14 +7960,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 8608-2020</t>
+          <t>A 5804-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43878</v>
+        <v>43864</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7951,11 +7981,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>20.2</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7992,14 +8022,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 40660-2020</t>
+          <t>A 8608-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44069</v>
+        <v>43878</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8017,7 +8047,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>20.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8054,14 +8084,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43174-2020</t>
+          <t>A 40660-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44081</v>
+        <v>44069</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8075,11 +8105,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -8116,14 +8146,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43177-2020</t>
+          <t>A 43174-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8141,7 +8171,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8178,14 +8208,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43171-2020</t>
+          <t>A 43177-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
         <v>44081</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8203,7 +8233,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -8240,14 +8270,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43590-2020</t>
+          <t>A 43171-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8265,7 +8295,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -8302,14 +8332,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47997-2020</t>
+          <t>A 43590-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44099</v>
+        <v>44082</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8321,8 +8351,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8359,14 +8394,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52076-2020</t>
+          <t>A 47997-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44117</v>
+        <v>44099</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8378,13 +8413,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8421,14 +8451,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 52074-2020</t>
+          <t>A 52076-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>44117</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8446,7 +8476,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -8483,14 +8513,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 54962-2020</t>
+          <t>A 52074-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44130</v>
+        <v>44117</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8508,7 +8538,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -8545,14 +8575,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55397-2020</t>
+          <t>A 54962-2020</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8570,7 +8600,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -8607,14 +8637,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59543-2020</t>
+          <t>A 55397-2020</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44148</v>
+        <v>44131</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8626,8 +8656,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -8664,14 +8699,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 59727-2020</t>
+          <t>A 59543-2020</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8683,13 +8718,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -8726,14 +8756,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59740-2020</t>
+          <t>A 59727-2020</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
         <v>44151</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8751,7 +8781,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -8788,14 +8818,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1492-2021</t>
+          <t>A 59740-2020</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44209</v>
+        <v>44151</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8807,8 +8837,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8845,14 +8880,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18723-2021</t>
+          <t>A 1492-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44306</v>
+        <v>44209</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8864,13 +8899,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8907,14 +8937,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 20478-2021</t>
+          <t>A 18723-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44315</v>
+        <v>44306</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8928,11 +8958,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.2</v>
+        <v>3.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8969,14 +8999,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21839-2021</t>
+          <t>A 20478-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8988,8 +9018,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>6.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -9026,14 +9061,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 24804-2021</t>
+          <t>A 21839-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44340</v>
+        <v>44322</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9043,11 +9078,6 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -9088,14 +9118,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31468-2021</t>
+          <t>A 24804-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44369</v>
+        <v>44340</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9107,8 +9137,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -9145,14 +9180,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34001-2021</t>
+          <t>A 31468-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44378</v>
+        <v>44369</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9164,13 +9199,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -9207,14 +9237,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33998-2021</t>
+          <t>A 34001-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>44378</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9232,7 +9262,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -9269,14 +9299,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 37799-2021</t>
+          <t>A 33998-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44402</v>
+        <v>44378</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9290,11 +9320,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -9331,14 +9361,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 37798-2021</t>
+          <t>A 37799-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
         <v>44402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9356,7 +9386,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9393,14 +9423,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 38178-2021</t>
+          <t>A 37798-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44405</v>
+        <v>44402</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9414,11 +9444,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9455,14 +9485,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47785-2021</t>
+          <t>A 38178-2021</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44448</v>
+        <v>44405</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9476,11 +9506,11 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -9517,14 +9547,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47852-2021</t>
+          <t>A 47785-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
         <v>44448</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9536,8 +9566,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -9574,14 +9609,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 64073-2021</t>
+          <t>A 47852-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44509</v>
+        <v>44448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9594,7 +9629,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -9631,14 +9666,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 66343-2021</t>
+          <t>A 64073-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44518</v>
+        <v>44509</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9650,13 +9685,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -9693,14 +9723,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 66342-2021</t>
+          <t>A 66343-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9718,7 +9748,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -9755,14 +9785,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 66350-2021</t>
+          <t>A 66342-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>44518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9780,7 +9810,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -9817,14 +9847,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 67611-2021</t>
+          <t>A 66350-2021</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44524</v>
+        <v>44518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9838,11 +9868,11 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9879,14 +9909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 72367-2021</t>
+          <t>A 67611-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44545</v>
+        <v>44524</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9898,8 +9928,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9936,14 +9971,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 73156-2021</t>
+          <t>A 72367-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44550</v>
+        <v>44545</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9953,11 +9988,6 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -9998,14 +10028,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 3155-2022</t>
+          <t>A 73156-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44582</v>
+        <v>44550</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10017,8 +10047,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -10055,14 +10090,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3595-2022</t>
+          <t>A 3155-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10074,13 +10109,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -10117,14 +10147,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3818-2022</t>
+          <t>A 3595-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10136,8 +10166,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -10174,14 +10209,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 5567-2022</t>
+          <t>A 3818-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10194,7 +10229,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -10231,14 +10266,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 8951-2022</t>
+          <t>A 5567-2022</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44614</v>
+        <v>44595</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10251,7 +10286,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -10288,14 +10323,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13119-2022</t>
+          <t>A 8951-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44643</v>
+        <v>44614</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10307,13 +10342,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -10350,14 +10380,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13070-2022</t>
+          <t>A 13119-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10375,7 +10405,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10412,14 +10442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 16608-2022</t>
+          <t>A 13070-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44672</v>
+        <v>44643</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10437,7 +10467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -10474,14 +10504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 19099-2022</t>
+          <t>A 16608-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44691</v>
+        <v>44672</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10495,11 +10525,11 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -10536,14 +10566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 19637-2022</t>
+          <t>A 19099-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44694</v>
+        <v>44691</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10557,11 +10587,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -10598,14 +10628,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 26700-2022</t>
+          <t>A 19637-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44739</v>
+        <v>44694</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10619,11 +10649,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -10660,14 +10690,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 32491-2022</t>
+          <t>A 26700-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44782</v>
+        <v>44739</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10681,11 +10711,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -10722,14 +10752,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32475-2022</t>
+          <t>A 32491-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>44782</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10747,7 +10777,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10784,14 +10814,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 32492-2022</t>
+          <t>A 32475-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>44782</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10809,7 +10839,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10846,14 +10876,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 33953-2022</t>
+          <t>A 32492-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44790</v>
+        <v>44782</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10865,8 +10895,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10903,14 +10938,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 34955-2022</t>
+          <t>A 33953-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44796</v>
+        <v>44790</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10922,13 +10957,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10965,14 +10995,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 34956-2022</t>
+          <t>A 34955-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
         <v>44796</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10990,7 +11020,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -11027,14 +11057,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 41576-2022</t>
+          <t>A 34956-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44826</v>
+        <v>44796</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11048,11 +11078,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -11089,14 +11119,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 41555-2022</t>
+          <t>A 41576-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>44826</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11114,7 +11144,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -11151,14 +11181,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 42714-2022</t>
+          <t>A 41555-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11170,8 +11200,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -11208,14 +11243,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42829-2022</t>
+          <t>A 42714-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
         <v>44832</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11228,7 +11263,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -11265,14 +11300,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 42832-2022</t>
+          <t>A 42829-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
         <v>44832</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11285,7 +11320,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -11322,14 +11357,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 42841-2022</t>
+          <t>A 42832-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>44832</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11342,7 +11377,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -11379,14 +11414,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 48581-2022</t>
+          <t>A 42841-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44859</v>
+        <v>44832</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11398,13 +11433,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -11441,14 +11471,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 3085-2023</t>
+          <t>A 48581-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44946</v>
+        <v>44859</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11462,11 +11492,11 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>13</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -11503,14 +11533,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 8553-2023</t>
+          <t>A 3085-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44977</v>
+        <v>44946</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11524,11 +11554,11 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -11565,14 +11595,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 8540-2023</t>
+          <t>A 8553-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>44977</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11584,8 +11614,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>11.6</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -11622,14 +11657,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 8546-2023</t>
+          <t>A 8540-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
         <v>44977</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11642,7 +11677,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>11.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11679,14 +11714,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8550-2023</t>
+          <t>A 8546-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
         <v>44977</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11699,7 +11734,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11736,14 +11771,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11501-2023</t>
+          <t>A 8550-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44991</v>
+        <v>44977</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11755,13 +11790,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11798,14 +11828,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10877-2023</t>
+          <t>A 11501-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
         <v>44991</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11819,11 +11849,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11860,14 +11890,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11259-2023</t>
+          <t>A 10877-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
         <v>44991</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11879,8 +11909,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11917,14 +11952,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 10883-2023</t>
+          <t>A 11259-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
         <v>44991</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11936,13 +11971,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>12.5</v>
+        <v>2.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11979,14 +12009,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 11728-2023</t>
+          <t>A 10883-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12000,11 +12030,11 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.4</v>
+        <v>12.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -12041,14 +12071,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 13479-2023</t>
+          <t>A 11728-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45005</v>
+        <v>44993</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12066,7 +12096,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -12103,14 +12133,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 14626-2023</t>
+          <t>A 13479-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45012</v>
+        <v>45005</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12128,7 +12158,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -12165,14 +12195,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14583-2023</t>
+          <t>A 14626-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45013</v>
+        <v>45012</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12184,8 +12214,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -12222,14 +12257,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 15743-2023</t>
+          <t>A 14583-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45021</v>
+        <v>45013</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12242,7 +12277,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -12279,14 +12314,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 15739-2023</t>
+          <t>A 15743-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
         <v>45021</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12299,7 +12334,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -12336,14 +12371,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 16013-2023</t>
+          <t>A 15739-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45026</v>
+        <v>45021</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12356,7 +12391,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -12393,14 +12428,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 18223-2023</t>
+          <t>A 16013-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45041</v>
+        <v>45026</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12412,13 +12447,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -12455,14 +12485,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19778-2023</t>
+          <t>A 18223-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45050</v>
+        <v>45041</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12476,11 +12506,11 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -12517,14 +12547,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 19786-2023</t>
+          <t>A 19778-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12542,7 +12572,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12579,14 +12609,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19782-2023</t>
+          <t>A 19786-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12604,7 +12634,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -12641,14 +12671,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19779-2023</t>
+          <t>A 19782-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>45050</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12666,7 +12696,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>11.1</v>
+        <v>5.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -12703,14 +12733,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 20020-2023</t>
+          <t>A 19779-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45054</v>
+        <v>45050</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12724,11 +12754,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12765,14 +12795,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 20019-2023</t>
+          <t>A 20020-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>45054</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12790,7 +12820,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>18.5</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -12827,14 +12857,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20018-2023</t>
+          <t>A 20019-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
         <v>45054</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12852,7 +12882,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.8</v>
+        <v>18.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -12889,14 +12919,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 20023-2023</t>
+          <t>A 20018-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
         <v>45054</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12914,7 +12944,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>7.8</v>
+        <v>3.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12951,14 +12981,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 20429-2023</t>
+          <t>A 20023-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45056</v>
+        <v>45054</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12970,8 +13000,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -13008,14 +13043,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 20904-2023</t>
+          <t>A 20429-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45060</v>
+        <v>45056</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13027,13 +13062,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -13070,14 +13100,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 21905-2023</t>
+          <t>A 20904-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45068</v>
+        <v>45060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13132,14 +13162,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 21904-2023</t>
+          <t>A 21905-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
         <v>45068</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13157,7 +13187,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -13194,14 +13224,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 21906-2023</t>
+          <t>A 21904-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>45068</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13219,7 +13249,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -13256,14 +13286,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 22915-2023</t>
+          <t>A 21906-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45070</v>
+        <v>45068</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13277,11 +13307,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -13318,14 +13348,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 22662-2023</t>
+          <t>A 22915-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45071</v>
+        <v>45070</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13339,11 +13369,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -13380,14 +13410,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 22660-2023</t>
+          <t>A 22662-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
         <v>45071</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13405,7 +13435,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>15.3</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -13442,14 +13472,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22659-2023</t>
+          <t>A 22660-2023</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
         <v>45071</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13467,7 +13497,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.3</v>
+        <v>15.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -13504,14 +13534,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 22661-2023</t>
+          <t>A 22659-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
         <v>45071</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13529,7 +13559,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -13566,14 +13596,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 23943-2023</t>
+          <t>A 22661-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45077</v>
+        <v>45071</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13585,8 +13615,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -13623,14 +13658,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23731-2023</t>
+          <t>A 23943-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>45077</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13642,13 +13677,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -13685,14 +13715,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 24197-2023</t>
+          <t>A 23731-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13710,7 +13740,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -13747,14 +13777,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 24158-2023</t>
+          <t>A 24197-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13772,7 +13802,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -13809,14 +13839,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 24156-2023</t>
+          <t>A 24158-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13834,7 +13864,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -13871,14 +13901,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 24180-2023</t>
+          <t>A 24156-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>45079</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13896,7 +13926,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -13933,14 +13963,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 25775-2023</t>
+          <t>A 24180-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13952,8 +13982,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13990,14 +14025,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 27140-2023</t>
+          <t>A 25775-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45096</v>
+        <v>45090</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14009,13 +14044,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -14052,14 +14082,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 27156-2023</t>
+          <t>A 27140-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
         <v>45096</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14114,14 +14144,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 27142-2023</t>
+          <t>A 27156-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
         <v>45096</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14139,7 +14169,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -14176,14 +14206,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 27171-2023</t>
+          <t>A 27142-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
         <v>45096</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14201,7 +14231,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -14238,14 +14268,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 30076-2023</t>
+          <t>A 27171-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45110</v>
+        <v>45096</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14263,7 +14293,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -14300,14 +14330,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 37138-2023</t>
+          <t>A 30076-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45155</v>
+        <v>45110</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14319,8 +14349,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G196" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -14357,14 +14392,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 37287-2023</t>
+          <t>A 37138-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45156</v>
+        <v>45155</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14377,7 +14412,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -14414,116 +14449,235 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
+          <t>A 37287-2023</t>
+        </is>
+      </c>
+      <c r="B198" s="1" t="n">
+        <v>45156</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" s="2" t="inlineStr"/>
+    </row>
+    <row r="199" ht="15" customHeight="1">
+      <c r="A199" t="inlineStr">
+        <is>
           <t>A 37635-2023</t>
-        </is>
-      </c>
-      <c r="B198" s="1" t="n">
-        <v>45159</v>
-      </c>
-      <c r="C198" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>1</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0</v>
-      </c>
-      <c r="P198" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q198" t="n">
-        <v>0</v>
-      </c>
-      <c r="R198" s="2" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>A 37639-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
         <v>45159</v>
       </c>
       <c r="C199" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" s="2" t="inlineStr"/>
+    </row>
+    <row r="200" ht="15" customHeight="1">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>A 37639-2023</t>
+        </is>
+      </c>
+      <c r="B200" s="1" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>A 48205-2023</t>
+        </is>
+      </c>
+      <c r="B201" s="1" t="n">
         <v>45205</v>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0</v>
-      </c>
-      <c r="L199" t="n">
-        <v>0</v>
-      </c>
-      <c r="M199" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0</v>
-      </c>
-      <c r="P199" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q199" t="n">
-        <v>0</v>
-      </c>
-      <c r="R199" s="2" t="inlineStr"/>
+      <c r="C201" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
